--- a/ExampleFolder/InputData/v_example/phi_constants.xlsx
+++ b/ExampleFolder/InputData/v_example/phi_constants.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2D194-9691-4335-AE64-2984D3F2BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E0915-BAA9-40FF-8686-B8203DD9FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phi_constants" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,20 +468,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,17 +808,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -843,1357 +835,1357 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="b">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="b">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="b">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="b">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="b">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="b">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="b">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>0.95599999999999996</v>
       </c>
-      <c r="C17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <f>temp_calcs!G2</f>
         <v>0.8467020793849932</v>
       </c>
-      <c r="C18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <f>temp_calcs!G3</f>
         <v>0.81746813717700162</v>
       </c>
-      <c r="C19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <f>temp_calcs!G4</f>
         <v>0.77445705533519227</v>
       </c>
-      <c r="C20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <f>temp_calcs!G5</f>
         <v>0.7671410615091433</v>
       </c>
-      <c r="C21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <f>temp_calcs!G6</f>
         <v>0.74433512887860043</v>
       </c>
-      <c r="C22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <f>temp_calcs!G7</f>
         <v>0.6711332531638321</v>
       </c>
-      <c r="C23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <f>temp_calcs!G8</f>
         <v>0.57342345688182428</v>
       </c>
-      <c r="C24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <f>temp_calcs!G9</f>
         <v>0.49899677222367622</v>
       </c>
-      <c r="C25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <f>temp_calcs!G10</f>
         <v>0.39311000739723134</v>
       </c>
-      <c r="C26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <f>temp_calcs!G11</f>
         <v>0.23047032024654968</v>
       </c>
-      <c r="C27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <f>temp_calcs!G12</f>
         <v>0.13807594176797244</v>
       </c>
-      <c r="C28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <f>temp_calcs!G13</f>
         <v>0.11140337304657277</v>
       </c>
-      <c r="C29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <f>temp_calcs!G14</f>
         <v>5.116834385127067E-2</v>
       </c>
-      <c r="C30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="6">
         <f>temp_calcs!G15</f>
         <v>3.4112229234180447E-2</v>
       </c>
-      <c r="C31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="6">
         <f>temp_calcs!G16</f>
         <v>0.114003420102603</v>
       </c>
-      <c r="C32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="b">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C34" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9" t="b">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9" t="b">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C43" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C44" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C45" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <f>Serrenho_2013!B4</f>
         <v>1.05</v>
       </c>
-      <c r="C46" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="6">
         <f>Serrenho_2013!B4</f>
         <v>1.05</v>
       </c>
-      <c r="C47" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9" t="b">
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C52" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C53" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9" t="b">
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="b">
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9" t="b">
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C57" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C58" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="6">
         <f>Serrenho_2013!B4</f>
         <v>1.05</v>
       </c>
-      <c r="C59" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C60" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9" t="b">
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C62" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C63" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C64" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9" t="b">
+      <c r="B66" s="6">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="6">
         <f>Serrenho_2013!B9</f>
         <v>0.6</v>
       </c>
-      <c r="C67" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="6">
         <f>Serrenho_2013!B9</f>
         <v>0.6</v>
       </c>
-      <c r="C69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9" t="b">
+      <c r="B70" s="6">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="6">
         <f>Serrenho_2013!$B$6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C71" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="6">
         <f>Serrenho_2013!$B$6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C73" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C74" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C75" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C76" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="b">
+      <c r="B77" s="6">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="9">
-        <v>1</v>
-      </c>
-      <c r="C78" s="9" t="b">
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C79" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C80" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="9">
-        <v>1</v>
-      </c>
-      <c r="C81" s="9" t="b">
+      <c r="B81" s="6">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="9">
-        <v>1</v>
-      </c>
-      <c r="C82" s="9" t="b">
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="6">
         <f>Serrenho_2013!$B$6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C83" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="6">
         <f>Serrenho_2013!B10</f>
         <v>0.25</v>
       </c>
-      <c r="C84" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C85" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C86" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C87" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C89" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="6">
         <f>Serrenho_2013!B2</f>
         <v>1.06</v>
       </c>
-      <c r="C90" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9">
-        <v>1</v>
-      </c>
-      <c r="C91" s="9" t="b">
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="6">
         <f>Serrenho_2013!B5</f>
         <v>1.04</v>
       </c>
-      <c r="C92" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="9">
-        <v>1</v>
-      </c>
-      <c r="C93" s="9" t="b">
+      <c r="B93" s="6">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="6">
         <f>Serrenho_2013!$B$6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="6">
         <f>Serrenho_2013!B3</f>
         <v>1.06</v>
       </c>
-      <c r="C95" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="9">
-        <v>1</v>
-      </c>
-      <c r="C96" s="9" t="b">
+      <c r="B96" s="6">
+        <v>1</v>
+      </c>
+      <c r="C96" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="6">
         <f>Serrenho_2013!B6</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C97" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="9">
-        <v>1</v>
-      </c>
-      <c r="C98" s="9" t="b">
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="9">
-        <v>1</v>
-      </c>
-      <c r="C99" s="9" t="b">
+      <c r="B99" s="6">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="9">
-        <v>1</v>
-      </c>
-      <c r="C100" s="9" t="b">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2239,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
@@ -2273,7 +2265,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
@@ -2299,7 +2291,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
@@ -2325,7 +2317,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
@@ -2351,7 +2343,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1">
@@ -2377,7 +2369,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1">
@@ -2403,7 +2395,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -2429,7 +2421,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
@@ -2455,7 +2447,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1">
@@ -2481,7 +2473,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
@@ -2510,7 +2502,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1">
@@ -2536,7 +2528,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="1">
@@ -2562,7 +2554,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="1">
@@ -2591,7 +2583,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1">
@@ -2617,7 +2609,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -2653,7 +2645,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
